--- a/biology/Zoologie/Gerrhosaurus_nigrolineatus/Gerrhosaurus_nigrolineatus.xlsx
+++ b/biology/Zoologie/Gerrhosaurus_nigrolineatus/Gerrhosaurus_nigrolineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerrhosaurus nigrolineatus est une espèce de sauriens de la famille des Gerrhosauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerrhosaurus nigrolineatus est une espèce de sauriens de la famille des Gerrhosauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au  Gabon, au Kenya, en Tanzanie, au Congo-Kinshasa, en Angola, en Zambie, au Malawi, au Mozambique, au Zimbabwe, au Botswana, en Namibie et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au  Gabon, au Kenya, en Tanzanie, au Congo-Kinshasa, en Angola, en Zambie, au Malawi, au Mozambique, au Zimbabwe, au Botswana, en Namibie et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est ovipare.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hallowell, 1857 : Notes of a collection of reptiles from the Gaboon country, West Africa, recently presented to the Academy of Natural Sciences of Philadelphia, by Dr. Herny A. Ford. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 9, p. 48-72 (texte intégral).</t>
         </is>
